--- a/outputs/o__Christensenellales.xlsx
+++ b/outputs/o__Christensenellales.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="o__Christensenellales_pred-t" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="o__Christensenellales_pred-t-p" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>f__Borkfalkiaceae</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>RUG563</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -521,4 +525,158 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3180318634627823</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3758097923368953</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.107480197177093</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1986781470232292</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3758097923368953</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5405821901947834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2312598873491773</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04520435269803553</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1829535697580038</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5405821901947834</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6475822112021333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1548960100369555</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04611087564174347</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1514109031191677</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6475822112021333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5256434008464409</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1696835610595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06406499774575568</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2406080403483033</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5256434008464409</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07041185664333167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0437100450222651</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8190011505387097</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0668769477956936</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8190011505387097</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/o__Christensenellales.xlsx
+++ b/outputs/o__Christensenellales.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F4594E-4D20-864E-AD14-5E198C69B2C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="o__Christensenellales_pred-t" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="o__Christensenellales_pred-t-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="o__Christensenellales_pred-t" sheetId="1" r:id="rId1"/>
+    <sheet name="o__Christensenellales_pred-t-p" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>f__Borkfalkiaceae</t>
   </si>
@@ -49,28 +54,48 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
+  </si>
+  <si>
+    <t>gtdb-Tk</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>f__CAG-917</t>
+  </si>
+  <si>
+    <t>f__UBA3700</t>
+  </si>
+  <si>
+    <t>f__CAG-727</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,26 +110,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,20 +434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,126 +458,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>-0.3438673011683047</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>-0.34386730116830472</v>
+      </c>
+      <c r="C2">
         <v>-0.1769357345479981</v>
       </c>
-      <c r="D2" t="n">
-        <v>-1.428712260204903</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.8143327147400269</v>
+      <c r="D2">
+        <v>-1.4287122602049029</v>
+      </c>
+      <c r="E2">
+        <v>-0.81433271474002689</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.2640960929391848</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.585008464261657</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>0.26409609293918479</v>
+      </c>
+      <c r="C3">
+        <v>-0.58500846426165698</v>
+      </c>
+      <c r="D3">
         <v>-2.217357215013851</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.8193181923643292</v>
+      <c r="E3">
+        <v>-0.81931819236432923</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.5332824038788067</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.8972093599670444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.108914512425946</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.9199659950142688</v>
+      <c r="B4">
+        <v>0.53328240387880665</v>
+      </c>
+      <c r="C4">
+        <v>-0.89720935996704443</v>
+      </c>
+      <c r="D4">
+        <v>-2.1089145124259461</v>
+      </c>
+      <c r="E4">
+        <v>-0.91996599501426879</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.1479379521798218</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.9827497885404881</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.956786927715587</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.6335158646015847</v>
+      <c r="B5">
+        <v>0.14793795217982181</v>
+      </c>
+      <c r="C5">
+        <v>-0.98274978854048811</v>
+      </c>
+      <c r="D5">
+        <v>-1.9567869277155869</v>
+      </c>
+      <c r="E5">
+        <v>-0.63351586460158471</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-1.150702828867469</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-1.627486557183079</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.303020992581401</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.202210165370918</v>
+      <c r="D6">
+        <v>1.3030209925814009</v>
+      </c>
+      <c r="E6">
+        <v>-1.2022101653709181</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,123 +590,159 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.3180318634627823</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3758097923368953</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.107480197177093</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2">
+        <v>0.31803186346278228</v>
+      </c>
+      <c r="C2">
+        <v>0.37580979233689532</v>
+      </c>
+      <c r="D2">
+        <v>0.10748019717709301</v>
+      </c>
+      <c r="E2">
         <v>0.1986781470232292</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.3758097923368953</v>
+      <c r="F2">
+        <v>0.37580979233689532</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.5405821901947834</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0.54058219019478337</v>
+      </c>
+      <c r="C3">
         <v>0.2312598873491773</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.04520435269803553</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1829535697580038</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5405821901947834</v>
+      <c r="D3">
+        <v>4.5204352698035528E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.18295356975800381</v>
+      </c>
+      <c r="F3">
+        <v>0.54058219019478337</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.6475822112021333</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1548960100369555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04611087564174347</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1514109031191677</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6475822112021333</v>
+      <c r="B4">
+        <v>0.64758221120213333</v>
+      </c>
+      <c r="C4">
+        <v>0.15489601003695549</v>
+      </c>
+      <c r="D4">
+        <v>4.6110875641743473E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.15141090311916769</v>
+      </c>
+      <c r="F4">
+        <v>0.64758221120213333</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.5256434008464409</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.1696835610595</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.06406499774575568</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>6.4064997745755678E-2</v>
+      </c>
+      <c r="E5">
         <v>0.2406080403483033</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.5256434008464409</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.07041185664333167</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0437100450222651</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>7.0411856643331674E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.3710045022265102E-2</v>
+      </c>
+      <c r="D6">
         <v>0.8190011505387097</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.0668769477956936</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>6.68769477956936E-2</v>
+      </c>
+      <c r="F6">
         <v>0.8190011505387097</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>